--- a/biology/Médecine/CD59/CD59.xlsx
+++ b/biology/Médecine/CD59/CD59.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La glycoprotéine CD59, également connue sous le nom de  "MAC-Inhibitory Protein" (MAC-IP) ou  "membrane inhibitor of reactive lysis" (MIRL), ou de protectine, est une protéine présente chez l'homme, codée par le gène CD59[1]. Elle appartient à la famille de protéines LY6/uPAR/alpha-neurotoxine[2].
-La protéine, ou cluster de différenciation CD59 est attachée aux cellules hôtes par l'intermédiaire de glycophosphatidylinositol (GPI) d'ancrage. Lorsque l'activation du complément conduit à un dépôt de C5b678 sur les cellules hôtes, CD59 peut empêcher C9 de polymériser et former le complexe d'attaque de membrane du complément[3]. Elle peut également signaler à la cellule d'effectuer des mesures actives telles que l'endocytose du complexe CD59-CD9[2] .
-Les mutations affectant GPI qui réduisent l'expression de CD59 et du facteur accélérant le déclin sur les globules rouges induisent une hémoglobinurie paroxystique nocturne[4].
-Les virus tels que le VIH, cytomégalovirus humain et la vaccine intègrent CD59 dans leur propre enveloppe virale pour éviter la lyse par le système du complément[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La glycoprotéine CD59, également connue sous le nom de  "MAC-Inhibitory Protein" (MAC-IP) ou  "membrane inhibitor of reactive lysis" (MIRL), ou de protectine, est une protéine présente chez l'homme, codée par le gène CD59. Elle appartient à la famille de protéines LY6/uPAR/alpha-neurotoxine.
+La protéine, ou cluster de différenciation CD59 est attachée aux cellules hôtes par l'intermédiaire de glycophosphatidylinositol (GPI) d'ancrage. Lorsque l'activation du complément conduit à un dépôt de C5b678 sur les cellules hôtes, CD59 peut empêcher C9 de polymériser et former le complexe d'attaque de membrane du complément. Elle peut également signaler à la cellule d'effectuer des mesures actives telles que l'endocytose du complexe CD59-CD9 .
+Les mutations affectant GPI qui réduisent l'expression de CD59 et du facteur accélérant le déclin sur les globules rouges induisent une hémoglobinurie paroxystique nocturne.
+Les virus tels que le VIH, cytomégalovirus humain et la vaccine intègrent CD59 dans leur propre enveloppe virale pour éviter la lyse par le système du complément.
 </t>
         </is>
       </c>
